--- a/politicalnetworkmatrix.xlsx
+++ b/politicalnetworkmatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Github/610/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{070CF971-7F58-2349-AA32-D1A8C4C536DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC95BC5-303C-C241-B2F4-5BFADE1BDAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19360" yWindow="4100" windowWidth="28040" windowHeight="17440" xr2:uid="{C9FADD61-FFA2-C440-A74F-DCF02BB02B75}"/>
   </bookViews>
@@ -379,109 +379,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD2402E-174D-6D41-9BA9-AA111B52FA8D}">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD1">
-        <v>29</v>
-      </c>
-      <c r="AE1">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -570,13 +570,10 @@
       <c r="AD2">
         <v>0</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -600,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -630,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -651,27 +648,24 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -755,18 +749,15 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -855,13 +846,10 @@
       <c r="AD5">
         <v>0</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -950,13 +938,10 @@
       <c r="AD6">
         <v>0</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -992,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1007,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1045,13 +1030,10 @@
       <c r="AD7">
         <v>0</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1120,39 +1102,36 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <v>1</v>
       </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1200,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1212,42 +1191,39 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1274,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1298,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1330,13 +1306,10 @@
       <c r="AD10">
         <v>0</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1375,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1390,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1414,24 +1387,21 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1473,16 +1443,16 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1494,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -1512,21 +1482,18 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1550,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1568,22 +1535,22 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -1601,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -1615,13 +1582,10 @@
       <c r="AD13">
         <v>0</v>
       </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1636,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1660,16 +1624,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1710,13 +1674,10 @@
       <c r="AD14">
         <v>0</v>
       </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1731,31 +1692,31 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1773,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <v>1</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -1805,13 +1766,10 @@
       <c r="AD15">
         <v>0</v>
       </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1841,13 +1799,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1871,16 +1829,16 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1892,21 +1850,18 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>1</v>
       </c>
       <c r="AD16">
-        <v>1</v>
-      </c>
-      <c r="AE16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1942,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1963,16 +1918,16 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>1</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>1</v>
@@ -1981,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -1993,15 +1948,12 @@
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2031,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2064,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -2085,18 +2037,15 @@
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2111,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2129,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2153,25 +2102,25 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>1</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
         <v>1</v>
@@ -2180,24 +2129,21 @@
         <v>1</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2212,16 +2158,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2254,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -2278,15 +2224,12 @@
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2310,37 +2253,37 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2349,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>1</v>
@@ -2358,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2375,13 +2318,10 @@
       <c r="AD21">
         <v>0</v>
       </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2414,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2429,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2470,13 +2410,10 @@
       <c r="AD22">
         <v>0</v>
       </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2506,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2524,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
         <v>1</v>
@@ -2536,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2563,15 +2500,12 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2595,43 +2529,43 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2640,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
         <v>1</v>
@@ -2655,21 +2589,18 @@
         <v>1</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2684,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2699,22 +2630,22 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2723,19 +2654,19 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2753,21 +2684,18 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2785,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2803,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -2827,16 +2755,16 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26">
         <v>1</v>
@@ -2845,18 +2773,15 @@
         <v>1</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <v>0</v>
       </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2907,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -2922,16 +2847,16 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -2943,21 +2868,18 @@
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2969,19 +2891,19 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3002,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -3017,36 +2939,33 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28">
         <v>0</v>
       </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3070,16 +2989,16 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3088,19 +3007,19 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -3112,45 +3031,42 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3159,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3177,22 +3093,22 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -3230,19 +3146,16 @@
       <c r="AD30">
         <v>0</v>
       </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3254,22 +3167,22 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3281,25 +3194,25 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>1</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>1</v>
@@ -3308,24 +3221,21 @@
         <v>1</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
         <v>0</v>
       </c>
     </row>
